--- a/Mesas.xlsx
+++ b/Mesas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,6 +1013,42 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sala</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>libre</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>terraza</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>reservada</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Mesas.xlsx
+++ b/Mesas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Reservada</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Reservada</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Reservada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sala</t>
+          <t>Sala</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ocupada</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sala</t>
+          <t>Sala</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>libre</t>
+          <t>Libre</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>terraza</t>
+          <t>Terraza</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1045,7 +1045,61 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>reservada</t>
+          <t>Libre</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Terraza</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Libre</t>
         </is>
       </c>
     </row>
